--- a/data/Nedrow_2017_1.xlsx
+++ b/data/Nedrow_2017_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCFE54B-DD96-D94A-8BB4-71A96C93EC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9F0F2-7626-D846-9798-FFE31FF59CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1580" windowWidth="27240" windowHeight="16040" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
+    <workbookView xWindow="420" yWindow="840" windowWidth="27240" windowHeight="16040" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
   </bookViews>
   <sheets>
     <sheet name="B16_Tumor" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>10_mgkg</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nedrow_(1)_0.5_mgkg</t>
+  </si>
+  <si>
+    <t>Nedrow_(1)_1_mgkg</t>
+  </si>
+  <si>
+    <t>Nedrow_(1)_3_mgkg</t>
+  </si>
+  <si>
+    <t>Nedrow_(1)_5_mgkg</t>
+  </si>
+  <si>
+    <t>Nedrow_(1)_10_mgkg</t>
   </si>
 </sst>
 </file>
@@ -426,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6F185-0807-0740-A9FF-6F7928CF5F40}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,9 +458,10 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +483,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -487,8 +509,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>24</v>
       </c>
@@ -510,8 +535,11 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>72</v>
       </c>
@@ -533,8 +561,11 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -556,8 +587,11 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -579,8 +613,11 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>72</v>
       </c>
@@ -602,8 +639,11 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -625,8 +665,11 @@
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
@@ -648,8 +691,11 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>72</v>
       </c>
@@ -671,8 +717,11 @@
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -694,8 +743,11 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24</v>
       </c>
@@ -717,8 +769,11 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
@@ -740,8 +795,11 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -763,8 +821,11 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24</v>
       </c>
@@ -786,8 +847,11 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>72</v>
       </c>
@@ -808,6 +872,9 @@
       </c>
       <c r="G16" t="s">
         <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Nedrow_2017_1.xlsx
+++ b/data/Nedrow_2017_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9F0F2-7626-D846-9798-FFE31FF59CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AF292-2126-E54E-AD63-E041647B0BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="840" windowWidth="27240" windowHeight="16040" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
   </bookViews>
   <sheets>
     <sheet name="B16_Tumor" sheetId="1" r:id="rId1"/>
@@ -72,19 +72,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Nedrow_(1)_0.5_mgkg</t>
-  </si>
-  <si>
-    <t>Nedrow_(1)_1_mgkg</t>
-  </si>
-  <si>
-    <t>Nedrow_(1)_3_mgkg</t>
-  </si>
-  <si>
-    <t>Nedrow_(1)_5_mgkg</t>
-  </si>
-  <si>
-    <t>Nedrow_(1)_10_mgkg</t>
+    <t>B16_Nedrow_(1)_0.5_mgkg</t>
+  </si>
+  <si>
+    <t>B16_Nedrow_(1)_1_mgkg</t>
+  </si>
+  <si>
+    <t>B16_Nedrow_(1)_3_mgkg</t>
+  </si>
+  <si>
+    <t>B16_Nedrow_(1)_5_mgkg</t>
+  </si>
+  <si>
+    <t>B16_Nedrow_(1)_10_mgkg</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Nedrow_2017_1.xlsx
+++ b/data/Nedrow_2017_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AF292-2126-E54E-AD63-E041647B0BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F865AE-E366-7A49-B7EF-10A49EC91839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
   </bookViews>
   <sheets>
     <sheet name="B16_Tumor" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>B16_Nedrow_(1)_10_mgkg</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1[%ID/g]</t>
+  </si>
+  <si>
+    <t>0.13_mgkg</t>
+  </si>
+  <si>
+    <t>B16_Nedrow(1)_0.13_mgkg</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6F185-0807-0740-A9FF-6F7928CF5F40}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H16"/>
+      <selection activeCell="J17" sqref="J17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,13 +464,14 @@
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,22 +482,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -504,16 +520,22 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>24</v>
       </c>
@@ -524,22 +546,28 @@
         <v>1.7</v>
       </c>
       <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>1.35</v>
+      </c>
+      <c r="F3">
         <v>3.9</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>72</v>
       </c>
@@ -550,22 +578,28 @@
         <v>0.8</v>
       </c>
       <c r="D4">
+        <v>0.23</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -582,16 +616,22 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -602,22 +642,28 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>6.3</v>
+      </c>
+      <c r="E6">
+        <v>1.35</v>
+      </c>
+      <c r="F6">
         <v>1.7</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.4</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>72</v>
       </c>
@@ -628,22 +674,28 @@
         <v>0.8</v>
       </c>
       <c r="D7">
+        <v>0.23</v>
+      </c>
+      <c r="E7">
+        <v>0.35</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -660,16 +712,22 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
@@ -680,22 +738,28 @@
         <v>3</v>
       </c>
       <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.2</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>72</v>
       </c>
@@ -706,22 +770,28 @@
         <v>6</v>
       </c>
       <c r="D10">
+        <v>2.58</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>5.4</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -738,16 +808,22 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24</v>
       </c>
@@ -758,22 +834,28 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D12">
+        <v>12.6</v>
+      </c>
+      <c r="E12">
+        <v>2.85</v>
+      </c>
+      <c r="F12">
         <v>0.8</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.2</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
@@ -784,22 +866,28 @@
         <v>3</v>
       </c>
       <c r="D13">
+        <v>5.03</v>
+      </c>
+      <c r="E13">
+        <v>1.32</v>
+      </c>
+      <c r="F13">
         <v>2.7</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.9</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -816,16 +904,22 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24</v>
       </c>
@@ -836,22 +930,28 @@
         <v>1.9</v>
       </c>
       <c r="D15">
+        <v>11.55</v>
+      </c>
+      <c r="E15">
+        <v>2.6</v>
+      </c>
+      <c r="F15">
         <v>0.8</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.1</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>72</v>
       </c>
@@ -862,19 +962,167 @@
         <v>8</v>
       </c>
       <c r="D16">
+        <v>6.68</v>
+      </c>
+      <c r="E16">
+        <v>2.6</v>
+      </c>
+      <c r="F16">
         <v>1.9</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>7.89</v>
+      </c>
+      <c r="E18">
+        <v>4.7</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>6.6</v>
+      </c>
+      <c r="C19">
+        <v>3.1</v>
+      </c>
+      <c r="D19">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.74</v>
+      </c>
+      <c r="F19">
+        <v>4.2</v>
+      </c>
+      <c r="G19">
+        <v>1.5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>2.6</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+      <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>0.47</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>1.9</v>
+      </c>
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>0.38</v>
+      </c>
+      <c r="E21">
+        <v>0.37</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Nedrow_2017_1.xlsx
+++ b/data/Nedrow_2017_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F865AE-E366-7A49-B7EF-10A49EC91839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA15EBD-C85E-294B-ABBB-72AFAADA71F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
   </bookViews>
   <sheets>
     <sheet name="B16_Tumor" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>B16_Nedrow(1)_0.13_mgkg</t>
+  </si>
+  <si>
+    <t>Dose2[mg/kg]</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6F185-0807-0740-A9FF-6F7928CF5F40}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +474,7 @@
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,13 +500,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,14 +534,17 @@
       <c r="H2">
         <v>0.5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>24</v>
       </c>
@@ -560,14 +569,17 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>72</v>
       </c>
@@ -592,14 +604,17 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -624,14 +639,17 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -656,14 +674,17 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>72</v>
       </c>
@@ -688,14 +709,17 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -720,14 +744,17 @@
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
@@ -752,14 +779,17 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>72</v>
       </c>
@@ -784,14 +814,17 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -814,16 +847,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24</v>
       </c>
@@ -848,14 +884,17 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
@@ -880,14 +919,17 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -912,14 +954,17 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24</v>
       </c>
@@ -944,14 +989,17 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>72</v>
       </c>
@@ -976,14 +1024,17 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1008,14 +1059,17 @@
       <c r="H17">
         <v>0.13</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1034,14 +1088,17 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1057,23 +1114,20 @@
       <c r="E19">
         <v>0.74</v>
       </c>
-      <c r="F19">
-        <v>4.2</v>
-      </c>
-      <c r="G19">
-        <v>1.5</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>72</v>
       </c>
@@ -1092,14 +1146,17 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
@@ -1118,10 +1175,13 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/Nedrow_2017_1.xlsx
+++ b/data/Nedrow_2017_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA15EBD-C85E-294B-ABBB-72AFAADA71F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A47941-B754-1E45-B196-672C5F5C3AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B0C01D70-2C73-204B-9394-E6A3EEC3856B}"/>
   </bookViews>
   <sheets>
     <sheet name="B16_Tumor" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6F185-0807-0740-A9FF-6F7928CF5F40}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,39 +532,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3">
-        <v>2.1</v>
+        <v>7.89</v>
       </c>
       <c r="E3">
-        <v>1.35</v>
-      </c>
-      <c r="F3">
-        <v>3.9</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -573,33 +567,27 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="D4">
-        <v>0.23</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E4">
-        <v>0.35</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>2.2999999999999998</v>
+        <v>0.74</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -608,68 +596,56 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>6.3</v>
+        <v>0.38</v>
       </c>
       <c r="E6">
-        <v>1.35</v>
-      </c>
-      <c r="F6">
-        <v>1.7</v>
-      </c>
-      <c r="G6">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -678,103 +654,103 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
+      <c r="J8" t="s">
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>0.23</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>0.35</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -782,104 +758,104 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
+      <c r="J9" t="s">
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>5.4</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
+      <c r="J10" t="s">
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="C12">
-        <v>4.4000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>12.6</v>
+        <v>0.23</v>
       </c>
       <c r="E12">
-        <v>2.85</v>
+        <v>0.35</v>
       </c>
       <c r="F12">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -888,103 +864,103 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>5.03</v>
-      </c>
-      <c r="E13">
-        <v>1.32</v>
-      </c>
-      <c r="F13">
-        <v>2.7</v>
-      </c>
-      <c r="G13">
-        <v>0.9</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>10</v>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>11</v>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>11.55</v>
+        <v>2.58</v>
       </c>
       <c r="E15">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -992,98 +968,104 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H17">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="D18">
-        <v>7.89</v>
+        <v>5.03</v>
       </c>
       <c r="E18">
-        <v>4.7</v>
+        <v>1.32</v>
+      </c>
+      <c r="F18">
+        <v>2.7</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1092,56 +1074,68 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.74</v>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B20">
+        <v>8.5</v>
+      </c>
+      <c r="C20">
+        <v>1.9</v>
+      </c>
+      <c r="D20">
+        <v>11.55</v>
+      </c>
+      <c r="E20">
         <v>2.6</v>
       </c>
-      <c r="C20">
-        <v>1.5</v>
-      </c>
-      <c r="D20">
-        <v>0.75</v>
-      </c>
-      <c r="E20">
-        <v>0.47</v>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1150,27 +1144,33 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>6.68</v>
+      </c>
+      <c r="E21">
+        <v>2.6</v>
+      </c>
+      <c r="F21">
         <v>1.9</v>
       </c>
-      <c r="C21">
-        <v>0.8</v>
-      </c>
-      <c r="D21">
-        <v>0.38</v>
-      </c>
-      <c r="E21">
-        <v>0.37</v>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
